--- a/data/case1/2/Qlm1_13.xlsx
+++ b/data/case1/2/Qlm1_13.xlsx
@@ -57,263 +57,263 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.091916305694226708</v>
+        <v>-0.11638189569927704</v>
       </c>
       <c r="B1" s="0">
-        <v>0.09187774113467384</v>
+        <v>0.11633018141579754</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.06977706466247291</v>
+        <v>-0.10461316739699278</v>
       </c>
       <c r="B2" s="0">
-        <v>0.069676036908181693</v>
+        <v>0.10444010341530152</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.077985014300706368</v>
+        <v>-0.054737981802581714</v>
       </c>
       <c r="B3" s="0">
-        <v>0.077680659949283637</v>
+        <v>0.054603968806803849</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.06968066004037432</v>
+        <v>-0.046603968846486765</v>
       </c>
       <c r="B4" s="0">
-        <v>0.069380038142112355</v>
+        <v>0.046133691450094716</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.066380038188529333</v>
+        <v>-0.043133691469508406</v>
       </c>
       <c r="B5" s="0">
-        <v>0.065371191521317762</v>
+        <v>0.041530703103680899</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0029283731783458222</v>
+        <v>-0.020299156455047651</v>
       </c>
       <c r="B6" s="0">
-        <v>0.0028166441308279389</v>
+        <v>0.020069088019043946</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0071833557408718107</v>
+        <v>-0.010069088072014676</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.0072000652441581714</v>
+        <v>0.010024913038439554</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.017200065116657726</v>
+        <v>-0.031915763476213499</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.01722185393796849</v>
+        <v>0.031638670715068429</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.019221853892495755</v>
+        <v>-0.029638670736798378</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.019241440792824971</v>
+        <v>0.029405882915328974</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.021241440750687346</v>
+        <v>-0.027405882939550708</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.021241248440411198</v>
+        <v>0.027390212493555666</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.024241248388539915</v>
+        <v>-0.024390212522400034</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.024244687676906018</v>
+        <v>0.024363904832706673</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0095237282100613108</v>
+        <v>-0.020863904864350413</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.0095480420507407793</v>
+        <v>0.020670400350225826</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.013048041998089843</v>
+        <v>-0.017170400384466156</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.013059185939685136</v>
+        <v>0.01708218901302061</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.021059185843633976</v>
+        <v>-0.0090821890673336014</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.021073520241077226</v>
+        <v>0.0090533146878879478</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.022073520216192577</v>
+        <v>-0.0080533147125620985</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.022092556260263407</v>
+        <v>0.0080346621295568355</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.024092556228295869</v>
+        <v>-0.006034662158983739</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.024180867026703634</v>
+        <v>0.0060035529045565639</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.026180867001921904</v>
+        <v>-0.0040035529346242882</v>
       </c>
       <c r="B17" s="0">
-        <v>-0.026221025265430242</v>
+        <v>0.0039999999611506354</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.016100676532616376</v>
+        <v>-0.0057170140451709983</v>
       </c>
       <c r="B18" s="0">
-        <v>0.01609047469510827</v>
+        <v>0.0056924942721465754</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.012090474736031531</v>
+        <v>-0.0016924942899101403</v>
       </c>
       <c r="B19" s="0">
-        <v>0.012015806552645003</v>
+        <v>0.001535701873168982</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080158065971325243</v>
+        <v>-0.0080168288632442852</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080055169038253382</v>
+        <v>0.0080056877501295531</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040055169488626419</v>
+        <v>-0.0040056877684602199</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999545896614</v>
+        <v>0.0039999999815121257</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.012308977345965033</v>
+        <v>-0.045702121633951265</v>
       </c>
       <c r="B22" s="0">
-        <v>-0.012890493716842144</v>
+        <v>0.04549171451490075</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.04049255576906674</v>
+        <v>-0.040491714541782464</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040097576479467101</v>
+        <v>0.040097604659772301</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020097576689940944</v>
+        <v>-0.020097604753567921</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999786093348</v>
+        <v>0.019999999904984911</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.060442818391933884</v>
+        <v>-0.019231546666873101</v>
       </c>
       <c r="B25" s="0">
-        <v>0.06038460779140209</v>
+        <v>0.019158966263109534</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.057884607846700575</v>
+        <v>-0.016658966283753074</v>
       </c>
       <c r="B26" s="0">
-        <v>0.057811625046452875</v>
+        <v>0.016568424314167274</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.05531162510401888</v>
+        <v>-0.01406842433512967</v>
       </c>
       <c r="B27" s="0">
-        <v>0.054890236878935905</v>
+        <v>0.01355085246450205</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.052890236944525881</v>
+        <v>-0.08897840267614221</v>
       </c>
       <c r="B28" s="0">
-        <v>0.052617044540957281</v>
+        <v>0.088350222687030744</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.04561704466387706</v>
+        <v>-0.081350222734310584</v>
       </c>
       <c r="B29" s="0">
-        <v>0.045549532405388504</v>
+        <v>0.081168032946500546</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.01445046694349994</v>
+        <v>-0.021168033224450156</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.014499642963649251</v>
+        <v>0.021023188721352781</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014020964922060841</v>
+        <v>-0.01402318877334352</v>
       </c>
       <c r="B31" s="0">
-        <v>0.01400085267649942</v>
+        <v>0.014001313373274371</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040008528314388059</v>
+        <v>-0.0040013134384793148</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999999042610312</v>
+        <v>0.003999999960491607</v>
       </c>
     </row>
   </sheetData>
